--- a/uploads/Book_1.xlsx
+++ b/uploads/Book_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9456717783a22975/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\punci\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{223C3A81-6DFD-415B-836D-ADB6E1513A75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{223C3A81-6DFD-415B-836D-ADB6E1513A75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A0D890FC-EF52-4E88-8572-87DADCCEF6F1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>How does wearing facemask make you feel comfortable?</t>
   </si>
@@ -80,19 +80,115 @@
   </si>
   <si>
     <t>It helps me keep safe, and it boosts my self-confidence, and lessen my social anxiety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When its hot, usually my face is easily to sweat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO. </t>
+  </si>
+  <si>
+    <t>Yes, sometimes because it covers half of your face. Especifically, when I have acne. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No, it results to impediment or hindrance for me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whenever i feel stuffy and needs some fresh air. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Its mostly due to it hiding my appearance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As I stated about it hides my appearance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It doesnt but it does feel comfortable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whenever I am eating or when my face get sweaty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It boost my confidence as it somehow hides some of my insecurities. Aside from that, it prevent me catching viruses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It helps me show my confident-self. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It hides some of my insecurities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personally, I don't wear facemask anymore since feel safe in the school and it irritates my skin the longer I wear it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maybe in some instances, it gives me comfort especially in public transports, but I dont usually wear it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It doest help me since I dont have social anxiety and Im not self conscious. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Im comfortable speaking either with or without facemask. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It varies in different situations but I mostly take off my mask whenever I eat or in break time but also during our P.E time since I get suffocated sometimes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It gives off a sense of comfort since it covers half of my face and I dont need to be insecure about my face or I dont need to be too mindful of my appearance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It doesnt really help me with my social anxiety since it is just partly covers half of my face and it doesnt hide you from everyone. By self consciousness I think mask are a great help because it can cover my insecurities that i wanted to hide outside from people. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It doesnt help me with all of that since my self-esteem has always been low and it is within me and wearing mask doesnt just magically make me feel better. Or help me with socializing etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When there's no one around and when I'm at home. It depends on various situation. Like activities that needs to take my mask off in order to breath properly and when taking pictures. For school purposes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It makes me feel comfort because I know that it can somehow protect me from bacterias that is in the air. It also hides half of my face. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In terms of coping with social anxiety and Self-consciousness, facemask does not really help. Since it only covers a part of my face and doesnt really hide me from individuals. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For me, wearing facemask does not boost my self-esteem in socializing since im not someone who like's socializing like others do. On the other hand, when it comes to confidence it does help a little since I do not feel the need to show my reactions when it comes to socializing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Facemask are just a tool to fight diseases and it is great to help fight it but if were speaking about self esteem and etc. It doesnt affect my life. Overall though I think it is great to wear because if you have insecurities in your face you can easily cover your face up. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It affects my life in a good way since it protects me from bacterias that I might get from inhaling the air. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For me, it doesn't affect anything since i think everything was back to the old normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wearing facemask can boost self-esteem and it helps in showing what you truly can do as a new version of yourself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nothing much really, its not too (prevakit cor) really effective. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sometimes it is very useful, however wearing it in our everyday lifes sometimes it irritates me because of the weather. But then, it is use to prevent having a disease or contagious.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,16 +211,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63763121-B707-0347-908E-6D402FC77813}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,10 +557,16 @@
     <col min="2" max="2" width="32" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.5703125" style="3"/>
+    <col min="5" max="5" width="27.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="5"/>
+    <col min="7" max="7" width="35.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="55" style="5" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -468,8 +579,26 @@
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +611,26 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -496,8 +643,26 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -510,8 +675,26 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,8 +707,57 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/Book_1.xlsx
+++ b/uploads/Book_1.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\punci\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\punci\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{223C3A81-6DFD-415B-836D-ADB6E1513A75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A0D890FC-EF52-4E88-8572-87DADCCEF6F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052FA81-D3DE-44F3-901B-47396CE80050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>How does wearing facemask make you feel comfortable?</t>
   </si>
@@ -28,155 +39,95 @@
     <t>In what situation do you take off your facemask?</t>
   </si>
   <si>
-    <t>How does wearing facemask help you cope with your social anxiety and self-consciousness?</t>
-  </si>
-  <si>
-    <t>How does wearing facemask boost your self-esteem and confidence in terms of speaking?</t>
+    <t>Before i eat, after i go to school.</t>
+  </si>
+  <si>
+    <t>It keeps me safe from the viruses or gems we encounter everytime.</t>
+  </si>
+  <si>
+    <t>Everytime i eat, drink, and sing.</t>
+  </si>
+  <si>
+    <t>Wearing facemask make me comfortable because facemask can hide nose and mouth.</t>
+  </si>
+  <si>
+    <t>I know that it makes me safe, and it lessen my insecurities</t>
+  </si>
+  <si>
+    <t>While eating, running because I feel suffocated, and when I got home</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When its hot, usually my face is easily to sweat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whenever i feel stuffy and needs some fresh air. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Its mostly due to it hiding my appearance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whenever I am eating or when my face get sweaty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It boost my confidence as it somehow hides some of my insecurities. Aside from that, it prevent me catching viruses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personally, I don't wear facemask anymore since feel safe in the school and it irritates my skin the longer I wear it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maybe in some instances, it gives me comfort especially in public transports, but I dont usually wear it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It varies in different situations but I mostly take off my mask whenever I eat or in break time but also during our P.E time since I get suffocated sometimes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It gives off a sense of comfort since it covers half of my face and I dont need to be insecure about my face or I dont need to be too mindful of my appearance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When there's no one around and when I'm at home. It depends on various situation. Like activities that needs to take my mask off in order to breath properly and when taking pictures. For school purposes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It makes me feel comfort because I know that it can somehow protect me from bacterias that is in the air. It also hides half of my face. </t>
   </si>
   <si>
     <t>Overall, how does the practice of wearing a facemask affect your daily life?</t>
   </si>
   <si>
-    <t>Before i eat, after i go to school.</t>
-  </si>
-  <si>
-    <t>It keeps me safe from the viruses or gems we encounter everytime.</t>
-  </si>
-  <si>
-    <t>It helps me to hide my insecurities specially when im in public places.</t>
-  </si>
-  <si>
-    <t>It helps me to speak confidently because i have insecurities and i want to hide it so it helps me boost my self-esteem cause i can hide my insecurities</t>
-  </si>
-  <si>
-    <t>It helps me to avoid viruses or germs i encounter everytime i go outside</t>
-  </si>
-  <si>
-    <t>Everytime i eat, drink, and sing.</t>
-  </si>
-  <si>
-    <t>Wearing facemask make me comfortable because facemask can hide nose and mouth.</t>
-  </si>
-  <si>
-    <t>It can hide my nose and mouth which is my insecurities.</t>
-  </si>
-  <si>
-    <t>It helps me to speak confident because they can't see my insecurities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It helps me to hide my insecurities and facemask is keeping me safe </t>
-  </si>
-  <si>
-    <t>I know that it makes me safe, and it lessen my insecurities</t>
-  </si>
-  <si>
-    <t>While eating, running because I feel suffocated, and when I got home</t>
-  </si>
-  <si>
-    <t>As it covers half of my face, I know people can't judge me. Hence it boosts my self-confidence.</t>
-  </si>
-  <si>
-    <t>It helps me solidare more because I won't feel insecure around people.</t>
+    <t>Sometimes it is very useful, however wearing it in our everyday lifes sometimes it irritates me because of the weather. But then, it is use to prevent having a disease or contagious.</t>
+  </si>
+  <si>
+    <t>Nothing much really, its not too (prevakit cor) really effective.</t>
+  </si>
+  <si>
+    <t>Wearing facemask can boost self-esteem and it helps in showing what you truly can do as a new version of yourself.</t>
+  </si>
+  <si>
+    <t>For me, it doesn't affect anything since i think everything was back to the old normal</t>
+  </si>
+  <si>
+    <t>Facemask are just a tool to fight diseases and it is great to help fight it but if were speaking about self esteem and etc. It doesnt affect my life. Overall though I think it is great to wear because if you have insecurities in your face you can easily cover your face up.</t>
+  </si>
+  <si>
+    <t>It affects my life in a good way since it protects me from bacterias that I might get from inhaling the air.</t>
   </si>
   <si>
     <t>It helps me keep safe, and it boosts my self-confidence, and lessen my social anxiety.</t>
   </si>
   <si>
-    <t xml:space="preserve"> When its hot, usually my face is easily to sweat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NO. </t>
-  </si>
-  <si>
-    <t>Yes, sometimes because it covers half of your face. Especifically, when I have acne. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No, it results to impediment or hindrance for me. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Whenever i feel stuffy and needs some fresh air. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Its mostly due to it hiding my appearance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> As I stated about it hides my appearance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It doesnt but it does feel comfortable. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Whenever I am eating or when my face get sweaty. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It boost my confidence as it somehow hides some of my insecurities. Aside from that, it prevent me catching viruses. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It helps me show my confident-self. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It hides some of my insecurities. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Personally, I don't wear facemask anymore since feel safe in the school and it irritates my skin the longer I wear it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maybe in some instances, it gives me comfort especially in public transports, but I dont usually wear it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It doest help me since I dont have social anxiety and Im not self conscious. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Im comfortable speaking either with or without facemask. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It varies in different situations but I mostly take off my mask whenever I eat or in break time but also during our P.E time since I get suffocated sometimes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It gives off a sense of comfort since it covers half of my face and I dont need to be insecure about my face or I dont need to be too mindful of my appearance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It doesnt really help me with my social anxiety since it is just partly covers half of my face and it doesnt hide you from everyone. By self consciousness I think mask are a great help because it can cover my insecurities that i wanted to hide outside from people. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It doesnt help me with all of that since my self-esteem has always been low and it is within me and wearing mask doesnt just magically make me feel better. Or help me with socializing etc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> When there's no one around and when I'm at home. It depends on various situation. Like activities that needs to take my mask off in order to breath properly and when taking pictures. For school purposes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It makes me feel comfort because I know that it can somehow protect me from bacterias that is in the air. It also hides half of my face. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In terms of coping with social anxiety and Self-consciousness, facemask does not really help. Since it only covers a part of my face and doesnt really hide me from individuals. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For me, wearing facemask does not boost my self-esteem in socializing since im not someone who like's socializing like others do. On the other hand, when it comes to confidence it does help a little since I do not feel the need to show my reactions when it comes to socializing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Facemask are just a tool to fight diseases and it is great to help fight it but if were speaking about self esteem and etc. It doesnt affect my life. Overall though I think it is great to wear because if you have insecurities in your face you can easily cover your face up. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It affects my life in a good way since it protects me from bacterias that I might get from inhaling the air. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For me, it doesn't affect anything since i think everything was back to the old normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wearing facemask can boost self-esteem and it helps in showing what you truly can do as a new version of yourself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nothing much really, its not too (prevakit cor) really effective. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sometimes it is very useful, however wearing it in our everyday lifes sometimes it irritates me because of the weather. But then, it is use to prevent having a disease or contagious.</t>
+    <t>It helps me to avoid viruses or germs I encounter everytime I go outside.</t>
+  </si>
+  <si>
+    <t>It helps me to hide my insecurities and facemask is keeping me safe.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +140,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -229,6 +186,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63763121-B707-0347-908E-6D402FC77813}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,190 +529,157 @@
     <col min="11" max="16384" width="8.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
     </row>
   </sheetData>
@@ -759,5 +689,6 @@
     <mergeCell ref="E13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>